--- a/evaluation_report.xlsx
+++ b/evaluation_report.xlsx
@@ -507,40 +507,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.911</v>
+        <v>0.665</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.921</v>
+        <v>0.472</v>
       </c>
       <c r="E2">
-        <v>0.851</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.309</v>
+        <v>0.061</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.597</v>
+        <v>0.184</v>
       </c>
       <c r="J2">
-        <v>3.383</v>
+        <v>41.958</v>
       </c>
       <c r="K2">
-        <v>0.025</v>
+        <v>0.094</v>
       </c>
       <c r="L2">
-        <v>463.573</v>
+        <v>72253.47100000001</v>
       </c>
       <c r="M2">
-        <v>-850155.769</v>
+        <v>18.233</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -548,40 +548,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.6870000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.511</v>
+        <v>0.347</v>
       </c>
       <c r="E3">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.058</v>
+        <v>1.062</v>
       </c>
       <c r="H3">
-        <v>0.135</v>
+        <v>0.227</v>
       </c>
       <c r="I3">
-        <v>0.961</v>
+        <v>0.873</v>
       </c>
       <c r="J3">
-        <v>26.804</v>
+        <v>41.141</v>
       </c>
       <c r="K3">
-        <v>0.39</v>
+        <v>0.208</v>
       </c>
       <c r="L3">
-        <v>334671.805</v>
+        <v>75091.03</v>
       </c>
       <c r="M3">
-        <v>-10875362.727</v>
+        <v>-258199526.856</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -589,40 +589,40 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.663</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.504</v>
+        <v>0.636</v>
       </c>
       <c r="E4">
-        <v>0.048</v>
+        <v>0.095</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.68</v>
+        <v>0.736</v>
       </c>
       <c r="H4">
         <v>0.116</v>
       </c>
       <c r="I4">
-        <v>0.915</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J4">
-        <v>25.696</v>
+        <v>38.979</v>
       </c>
       <c r="K4">
-        <v>0.156</v>
+        <v>0.162</v>
       </c>
       <c r="L4">
-        <v>317845.699</v>
+        <v>70565.023</v>
       </c>
       <c r="M4">
-        <v>-195525205.146</v>
+        <v>-596589496.476</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -630,40 +630,40 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.756</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.463</v>
+        <v>0.641</v>
       </c>
       <c r="E5">
-        <v>0.048</v>
+        <v>0.172</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.753</v>
+        <v>0.703</v>
       </c>
       <c r="H5">
-        <v>0.13</v>
+        <v>0.115</v>
       </c>
       <c r="I5">
-        <v>0.912</v>
+        <v>0.838</v>
       </c>
       <c r="J5">
-        <v>25.754</v>
+        <v>24.017</v>
       </c>
       <c r="K5">
-        <v>0.054</v>
+        <v>0.136</v>
       </c>
       <c r="L5">
-        <v>339539.989</v>
+        <v>91483.061</v>
       </c>
       <c r="M5">
-        <v>-5939822.316</v>
+        <v>-99265552.182</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -671,40 +671,40 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.744</v>
+        <v>0.494</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.753</v>
+        <v>0.54</v>
       </c>
       <c r="E6">
-        <v>0.046</v>
+        <v>0.089</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.299</v>
+        <v>0.276</v>
       </c>
       <c r="H6">
-        <v>0.022</v>
+        <v>0.043</v>
       </c>
       <c r="I6">
-        <v>0.822</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="J6">
-        <v>25.471</v>
+        <v>42.546</v>
       </c>
       <c r="K6">
-        <v>0.041</v>
+        <v>0.131</v>
       </c>
       <c r="L6">
-        <v>271843.927</v>
+        <v>72868.519</v>
       </c>
       <c r="M6">
-        <v>-2509020.296</v>
+        <v>-5150963.051</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -712,40 +712,40 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.9320000000000001</v>
+        <v>0.665</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.894</v>
+        <v>0.469</v>
       </c>
       <c r="E7">
-        <v>0.804</v>
+        <v>0.036</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.238</v>
+        <v>0.064</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5629999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="J7">
-        <v>3.785</v>
+        <v>41.96</v>
       </c>
       <c r="K7">
-        <v>0.02</v>
+        <v>0.094</v>
       </c>
       <c r="L7">
-        <v>1643.253</v>
+        <v>72254.054</v>
       </c>
       <c r="M7">
-        <v>-86015.283</v>
+        <v>18.238</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -753,40 +753,40 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.6870000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.511</v>
+        <v>0.347</v>
       </c>
       <c r="E8">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.058</v>
+        <v>1.062</v>
       </c>
       <c r="H8">
-        <v>0.135</v>
+        <v>0.227</v>
       </c>
       <c r="I8">
-        <v>0.961</v>
+        <v>0.873</v>
       </c>
       <c r="J8">
-        <v>26.804</v>
+        <v>41.141</v>
       </c>
       <c r="K8">
-        <v>0.39</v>
+        <v>0.208</v>
       </c>
       <c r="L8">
-        <v>334671.805</v>
+        <v>75091.03</v>
       </c>
       <c r="M8">
-        <v>-10875362.727</v>
+        <v>-258199526.856</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -794,40 +794,40 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.704</v>
+        <v>0.531</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.475</v>
+        <v>0.579</v>
       </c>
       <c r="E9">
-        <v>0.048</v>
+        <v>0.045</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.784</v>
+        <v>0.796</v>
       </c>
       <c r="H9">
-        <v>0.155</v>
+        <v>0.12</v>
       </c>
       <c r="I9">
-        <v>0.921</v>
+        <v>0.798</v>
       </c>
       <c r="J9">
-        <v>24.822</v>
+        <v>47.525</v>
       </c>
       <c r="K9">
-        <v>0.135</v>
+        <v>0.184</v>
       </c>
       <c r="L9">
-        <v>310613.498</v>
+        <v>81140.22199999999</v>
       </c>
       <c r="M9">
-        <v>-308074078.076</v>
+        <v>-535801162.485</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -835,40 +835,40 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.757</v>
+        <v>0.748</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.466</v>
+        <v>0.663</v>
       </c>
       <c r="E10">
-        <v>0.044</v>
+        <v>0.155</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6919999999999999</v>
+        <v>0.775</v>
       </c>
       <c r="H10">
-        <v>0.079</v>
+        <v>0.133</v>
       </c>
       <c r="I10">
-        <v>0.884</v>
+        <v>0.886</v>
       </c>
       <c r="J10">
-        <v>25.875</v>
+        <v>20.738</v>
       </c>
       <c r="K10">
-        <v>0.114</v>
+        <v>0.119</v>
       </c>
       <c r="L10">
-        <v>336469.322</v>
+        <v>191173.281</v>
       </c>
       <c r="M10">
-        <v>-11278267.832</v>
+        <v>-27461333.28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -876,40 +876,40 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0.738</v>
+        <v>0.486</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.507</v>
+        <v>0.571</v>
       </c>
       <c r="E11">
-        <v>0.032</v>
+        <v>0.091</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.301</v>
+        <v>0.287</v>
       </c>
       <c r="H11">
-        <v>0.029</v>
+        <v>0.023</v>
       </c>
       <c r="I11">
-        <v>0.82</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="J11">
-        <v>25.788</v>
+        <v>42.726</v>
       </c>
       <c r="K11">
-        <v>0.04</v>
+        <v>0.132</v>
       </c>
       <c r="L11">
-        <v>338146.209</v>
+        <v>72966.91</v>
       </c>
       <c r="M11">
-        <v>-3128992.65</v>
+        <v>-5117900.753</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -917,40 +917,40 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.957</v>
+        <v>0.664</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.886</v>
+        <v>0.469</v>
       </c>
       <c r="E12">
-        <v>0.8129999999999999</v>
+        <v>0.038</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.191</v>
+        <v>0.063</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.534</v>
+        <v>0.189</v>
       </c>
       <c r="J12">
-        <v>3.243</v>
+        <v>41.938</v>
       </c>
       <c r="K12">
-        <v>0.014</v>
+        <v>0.095</v>
       </c>
       <c r="L12">
-        <v>588.813</v>
+        <v>72235.075</v>
       </c>
       <c r="M12">
-        <v>-100289.978</v>
+        <v>18.874</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -958,40 +958,40 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.6870000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.511</v>
+        <v>0.347</v>
       </c>
       <c r="E13">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.058</v>
+        <v>1.062</v>
       </c>
       <c r="H13">
-        <v>0.135</v>
+        <v>0.227</v>
       </c>
       <c r="I13">
-        <v>0.961</v>
+        <v>0.873</v>
       </c>
       <c r="J13">
-        <v>26.804</v>
+        <v>41.141</v>
       </c>
       <c r="K13">
-        <v>0.39</v>
+        <v>0.208</v>
       </c>
       <c r="L13">
-        <v>334671.805</v>
+        <v>75091.03</v>
       </c>
       <c r="M13">
-        <v>-10875362.727</v>
+        <v>-258199526.856</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -999,40 +999,40 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>0.605</v>
+        <v>0.488</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.479</v>
+        <v>0.619</v>
       </c>
       <c r="E14">
-        <v>0.045</v>
+        <v>0.096</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.719</v>
+        <v>0.755</v>
       </c>
       <c r="H14">
-        <v>0.081</v>
+        <v>0.105</v>
       </c>
       <c r="I14">
-        <v>0.917</v>
+        <v>0.765</v>
       </c>
       <c r="J14">
-        <v>26.038</v>
+        <v>56.733</v>
       </c>
       <c r="K14">
-        <v>0.181</v>
+        <v>0.17</v>
       </c>
       <c r="L14">
-        <v>298615.328</v>
+        <v>106576.434</v>
       </c>
       <c r="M14">
-        <v>-641429937.433</v>
+        <v>-652610265.39</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1040,40 +1040,40 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.785</v>
+        <v>0.702</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.477</v>
+        <v>0.67</v>
       </c>
       <c r="E15">
-        <v>0.051</v>
+        <v>0.205</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.772</v>
+        <v>0.694</v>
       </c>
       <c r="H15">
-        <v>0.033</v>
+        <v>0.073</v>
       </c>
       <c r="I15">
-        <v>0.899</v>
+        <v>0.843</v>
       </c>
       <c r="J15">
-        <v>25.516</v>
+        <v>22.915</v>
       </c>
       <c r="K15">
-        <v>0.08699999999999999</v>
+        <v>0.118</v>
       </c>
       <c r="L15">
-        <v>338109.085</v>
+        <v>93830.204</v>
       </c>
       <c r="M15">
-        <v>-4947662.233</v>
+        <v>-100537048.037</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1081,40 +1081,40 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>0.754</v>
+        <v>0.474</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.48</v>
+        <v>0.554</v>
       </c>
       <c r="E16">
-        <v>0.031</v>
+        <v>0.083</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.312</v>
+        <v>0.276</v>
       </c>
       <c r="H16">
-        <v>0.015</v>
+        <v>0.023</v>
       </c>
       <c r="I16">
-        <v>0.819</v>
+        <v>0.572</v>
       </c>
       <c r="J16">
-        <v>25.818</v>
+        <v>45.659</v>
       </c>
       <c r="K16">
-        <v>0.036</v>
+        <v>0.122</v>
       </c>
       <c r="L16">
-        <v>338285.535</v>
+        <v>76423.253</v>
       </c>
       <c r="M16">
-        <v>-2874975.049</v>
+        <v>-5333394.463</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation_report.xlsx
+++ b/evaluation_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Model</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>log_cluster_score</t>
+  </si>
+  <si>
+    <t>propensity_score</t>
   </si>
   <si>
     <t>itercart_iter</t>
@@ -455,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,51 +504,57 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>0.665</v>
+        <v>0.267</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.472</v>
+        <v>0.569</v>
       </c>
       <c r="E2">
-        <v>0.04</v>
+        <v>0.174</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.061</v>
+        <v>0.372</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="I2">
-        <v>0.184</v>
+        <v>0.488</v>
       </c>
       <c r="J2">
-        <v>41.958</v>
+        <v>72.393</v>
       </c>
       <c r="K2">
-        <v>0.094</v>
+        <v>0.202</v>
       </c>
       <c r="L2">
-        <v>72253.47100000001</v>
+        <v>204119.004</v>
       </c>
       <c r="M2">
-        <v>18.233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>-1196207742.392</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0.509</v>
@@ -583,174 +592,189 @@
       <c r="M3">
         <v>-258199526.856</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.642</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.636</v>
+        <v>0.65</v>
       </c>
       <c r="E4">
-        <v>0.095</v>
+        <v>0.178</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="H4">
-        <v>0.116</v>
+        <v>0.055</v>
       </c>
       <c r="I4">
-        <v>0.8149999999999999</v>
+        <v>0.855</v>
       </c>
       <c r="J4">
-        <v>38.979</v>
+        <v>25.716</v>
       </c>
       <c r="K4">
-        <v>0.162</v>
+        <v>0.156</v>
       </c>
       <c r="L4">
-        <v>70565.023</v>
+        <v>84495.87</v>
       </c>
       <c r="M4">
-        <v>-596589496.476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-450974750.815</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>0.6919999999999999</v>
+        <v>0.745</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.641</v>
+        <v>0.679</v>
       </c>
       <c r="E5">
-        <v>0.172</v>
+        <v>0.193</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.703</v>
+        <v>0.791</v>
       </c>
       <c r="H5">
-        <v>0.115</v>
+        <v>0.14</v>
       </c>
       <c r="I5">
-        <v>0.838</v>
+        <v>0.876</v>
       </c>
       <c r="J5">
-        <v>24.017</v>
+        <v>16.774</v>
       </c>
       <c r="K5">
-        <v>0.136</v>
+        <v>0.135</v>
       </c>
       <c r="L5">
-        <v>91483.061</v>
+        <v>144396.617</v>
       </c>
       <c r="M5">
-        <v>-99265552.182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-84638197.779</v>
+      </c>
+      <c r="N5">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>0.494</v>
+        <v>0.486</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.54</v>
+        <v>0.547</v>
       </c>
       <c r="E6">
-        <v>0.089</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.276</v>
+        <v>0.277</v>
       </c>
       <c r="H6">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="I6">
-        <v>0.5580000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J6">
-        <v>42.546</v>
+        <v>44.336</v>
       </c>
       <c r="K6">
-        <v>0.131</v>
+        <v>0.127</v>
       </c>
       <c r="L6">
-        <v>72868.519</v>
+        <v>74712.664</v>
       </c>
       <c r="M6">
-        <v>-5150963.051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>-5338815.273</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>0.665</v>
+        <v>0.267</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.469</v>
+        <v>0.569</v>
       </c>
       <c r="E7">
-        <v>0.036</v>
+        <v>0.174</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.064</v>
+        <v>0.372</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="I7">
-        <v>0.183</v>
+        <v>0.488</v>
       </c>
       <c r="J7">
-        <v>41.96</v>
+        <v>72.393</v>
       </c>
       <c r="K7">
-        <v>0.094</v>
+        <v>0.202</v>
       </c>
       <c r="L7">
-        <v>72254.054</v>
+        <v>204119.004</v>
       </c>
       <c r="M7">
-        <v>18.238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>-1196207742.392</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.509</v>
@@ -788,174 +812,189 @@
       <c r="M8">
         <v>-258199526.856</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>0.531</v>
+        <v>0.678</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.579</v>
+        <v>0.649</v>
       </c>
       <c r="E9">
-        <v>0.045</v>
+        <v>0.155</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.796</v>
+        <v>0.731</v>
       </c>
       <c r="H9">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I9">
-        <v>0.798</v>
+        <v>0.844</v>
       </c>
       <c r="J9">
-        <v>47.525</v>
+        <v>27.593</v>
       </c>
       <c r="K9">
-        <v>0.184</v>
+        <v>0.154</v>
       </c>
       <c r="L9">
-        <v>81140.22199999999</v>
+        <v>80761.639</v>
       </c>
       <c r="M9">
-        <v>-535801162.485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>-312350745.331</v>
+      </c>
+      <c r="N9">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.663</v>
+        <v>0.703</v>
       </c>
       <c r="E10">
-        <v>0.155</v>
+        <v>0.21</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.775</v>
+        <v>0.745</v>
       </c>
       <c r="H10">
-        <v>0.133</v>
+        <v>0.077</v>
       </c>
       <c r="I10">
-        <v>0.886</v>
+        <v>0.857</v>
       </c>
       <c r="J10">
-        <v>20.738</v>
+        <v>16.092</v>
       </c>
       <c r="K10">
-        <v>0.119</v>
+        <v>0.11</v>
       </c>
       <c r="L10">
-        <v>191173.281</v>
+        <v>127227.594</v>
       </c>
       <c r="M10">
-        <v>-27461333.28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>-93599901.241</v>
+      </c>
+      <c r="N10">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>0.486</v>
+        <v>0.494</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.571</v>
+        <v>0.543</v>
       </c>
       <c r="E11">
-        <v>0.091</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.287</v>
+        <v>0.269</v>
       </c>
       <c r="H11">
-        <v>0.023</v>
+        <v>0.01</v>
       </c>
       <c r="I11">
-        <v>0.5620000000000001</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J11">
-        <v>42.726</v>
+        <v>44.457</v>
       </c>
       <c r="K11">
-        <v>0.132</v>
+        <v>0.107</v>
       </c>
       <c r="L11">
-        <v>72966.91</v>
+        <v>74917.53999999999</v>
       </c>
       <c r="M11">
-        <v>-5117900.753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>-5309153.117</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>0.664</v>
+        <v>0.252</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.469</v>
+        <v>0.436</v>
       </c>
       <c r="E12">
-        <v>0.038</v>
+        <v>0.138</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.063</v>
+        <v>0.31</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="I12">
-        <v>0.189</v>
+        <v>0.421</v>
       </c>
       <c r="J12">
-        <v>41.938</v>
+        <v>79.797</v>
       </c>
       <c r="K12">
-        <v>0.095</v>
+        <v>0.204</v>
       </c>
       <c r="L12">
-        <v>72235.075</v>
+        <v>265980.809</v>
       </c>
       <c r="M12">
-        <v>18.874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>-717234778.5369999</v>
+      </c>
+      <c r="N12">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>0.509</v>
@@ -993,128 +1032,140 @@
       <c r="M13">
         <v>-258199526.856</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14">
+        <v>0.502</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.636</v>
+      </c>
+      <c r="E14">
+        <v>0.097</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.766</v>
+      </c>
+      <c r="H14">
+        <v>0.14</v>
+      </c>
+      <c r="I14">
+        <v>0.768</v>
+      </c>
+      <c r="J14">
+        <v>56.832</v>
+      </c>
+      <c r="K14">
+        <v>0.164</v>
+      </c>
+      <c r="L14">
+        <v>102744.742</v>
+      </c>
+      <c r="M14">
+        <v>-910213076.836</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>0.767</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.699</v>
+      </c>
+      <c r="E15">
+        <v>0.15</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.122</v>
+      </c>
+      <c r="I15">
+        <v>0.89</v>
+      </c>
+      <c r="J15">
+        <v>21.144</v>
+      </c>
+      <c r="K15">
+        <v>0.113</v>
+      </c>
+      <c r="L15">
+        <v>192747.089</v>
+      </c>
+      <c r="M15">
+        <v>-43691067.459</v>
+      </c>
+      <c r="N15">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
         <v>0.488</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0.619</v>
-      </c>
-      <c r="E14">
-        <v>0.096</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.755</v>
-      </c>
-      <c r="H14">
-        <v>0.105</v>
-      </c>
-      <c r="I14">
-        <v>0.765</v>
-      </c>
-      <c r="J14">
-        <v>56.733</v>
-      </c>
-      <c r="K14">
-        <v>0.17</v>
-      </c>
-      <c r="L14">
-        <v>106576.434</v>
-      </c>
-      <c r="M14">
-        <v>-652610265.39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>0.702</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0.67</v>
-      </c>
-      <c r="E15">
-        <v>0.205</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.694</v>
-      </c>
-      <c r="H15">
-        <v>0.073</v>
-      </c>
-      <c r="I15">
-        <v>0.843</v>
-      </c>
-      <c r="J15">
-        <v>22.915</v>
-      </c>
-      <c r="K15">
-        <v>0.118</v>
-      </c>
-      <c r="L15">
-        <v>93830.204</v>
-      </c>
-      <c r="M15">
-        <v>-100537048.037</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>0.474</v>
-      </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.554</v>
+        <v>0.518</v>
       </c>
       <c r="E16">
-        <v>0.083</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.276</v>
+        <v>0.275</v>
       </c>
       <c r="H16">
-        <v>0.023</v>
+        <v>0.065</v>
       </c>
       <c r="I16">
-        <v>0.572</v>
+        <v>0.551</v>
       </c>
       <c r="J16">
-        <v>45.659</v>
+        <v>43.323</v>
       </c>
       <c r="K16">
-        <v>0.122</v>
+        <v>0.107</v>
       </c>
       <c r="L16">
-        <v>76423.253</v>
+        <v>73683.652</v>
       </c>
       <c r="M16">
-        <v>-5333394.463</v>
+        <v>-5507362.212</v>
+      </c>
+      <c r="N16">
+        <v>0.016</v>
       </c>
     </row>
   </sheetData>
